--- a/In development/Math_and_Geometry_Utils.xlsx
+++ b/In development/Math_and_Geometry_Utils.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/profmc/Library/CloudStorage/Dropbox/Excel Development/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/profmc/Library/CloudStorage/Dropbox/Lambda-Update-Project/Lambda-Development/In development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DE7311-A093-A440-A24A-0B7468A63F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820197AD-9A64-C140-9DE7-A01111B0F9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5140" yWindow="1800" windowWidth="33260" windowHeight="17440" activeTab="2" xr2:uid="{D80B3487-635B-2E4E-BDFF-D2F369F38B28}"/>
   </bookViews>

--- a/In development/Math_and_Geometry_Utils.xlsx
+++ b/In development/Math_and_Geometry_Utils.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/profmc/Library/CloudStorage/Dropbox/Lambda-Update-Project/Lambda-Development/In development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820197AD-9A64-C140-9DE7-A01111B0F9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881C408C-6E5E-3B4C-B1DD-6BBDDB734EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5140" yWindow="1800" windowWidth="33260" windowHeight="17440" activeTab="2" xr2:uid="{D80B3487-635B-2E4E-BDFF-D2F369F38B28}"/>
   </bookViews>
@@ -1118,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828C44E5-9F58-8B4E-A95E-195806A118F4}">
-  <dimension ref="B1:C53"/>
+  <dimension ref="B1:BM53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1135,13 +1135,13 @@
     <col min="7" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="2:65">
       <c r="B1" s="1" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C3)</f>
         <v>=SUM_N_TERMS(4,10,1,0)</v>
       </c>
     </row>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:65">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1149,20 +1149,209 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:65">
       <c r="B3" s="3"/>
       <c r="C3" s="2" cm="1">
         <f t="array" ref="C3">SUM_N_TERMS(4,10,1,0)</f>
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="4" spans="2:65">
+      <c r="F4" s="2" cm="1">
+        <f t="array" ref="F4:BM4">LIST_DIVISORS(5040,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2">
+        <v>5</v>
+      </c>
+      <c r="K4" s="2">
+        <v>6</v>
+      </c>
+      <c r="L4" s="2">
+        <v>7</v>
+      </c>
+      <c r="M4" s="2">
+        <v>8</v>
+      </c>
+      <c r="N4" s="2">
+        <v>9</v>
+      </c>
+      <c r="O4" s="2">
+        <v>10</v>
+      </c>
+      <c r="P4" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>14</v>
+      </c>
+      <c r="R4" s="2">
+        <v>15</v>
+      </c>
+      <c r="S4" s="2">
+        <v>16</v>
+      </c>
+      <c r="T4" s="2">
+        <v>18</v>
+      </c>
+      <c r="U4" s="2">
+        <v>20</v>
+      </c>
+      <c r="V4" s="2">
+        <v>21</v>
+      </c>
+      <c r="W4" s="2">
+        <v>24</v>
+      </c>
+      <c r="X4" s="2">
+        <v>28</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>30</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>48</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>56</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>60</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>63</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>90</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>105</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>112</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>120</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>126</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>140</v>
+      </c>
+      <c r="AS4" s="2">
+        <v>144</v>
+      </c>
+      <c r="AT4" s="2">
+        <v>168</v>
+      </c>
+      <c r="AU4" s="2">
+        <v>180</v>
+      </c>
+      <c r="AV4" s="2">
+        <v>210</v>
+      </c>
+      <c r="AW4" s="2">
+        <v>240</v>
+      </c>
+      <c r="AX4" s="2">
+        <v>252</v>
+      </c>
+      <c r="AY4" s="2">
+        <v>280</v>
+      </c>
+      <c r="AZ4" s="2">
+        <v>315</v>
+      </c>
+      <c r="BA4" s="2">
+        <v>336</v>
+      </c>
+      <c r="BB4" s="2">
+        <v>360</v>
+      </c>
+      <c r="BC4" s="2">
+        <v>420</v>
+      </c>
+      <c r="BD4" s="2">
+        <v>504</v>
+      </c>
+      <c r="BE4" s="2">
+        <v>560</v>
+      </c>
+      <c r="BF4" s="2">
+        <v>630</v>
+      </c>
+      <c r="BG4" s="2">
+        <v>720</v>
+      </c>
+      <c r="BH4" s="2">
+        <v>840</v>
+      </c>
+      <c r="BI4" s="2">
+        <v>1008</v>
+      </c>
+      <c r="BJ4" s="2">
+        <v>1260</v>
+      </c>
+      <c r="BK4" s="2">
+        <v>1680</v>
+      </c>
+      <c r="BL4" s="2">
+        <v>2520</v>
+      </c>
+      <c r="BM4" s="2">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="5" spans="2:65">
+      <c r="F5" s="2" t="str">
+        <f>"{"&amp;_xlfn.TEXTJOIN("; ",,_xlfn.ANCHORARRAY(F4))&amp;"}"</f>
+        <v>{1; 2; 3; 4; 5; 6; 7; 8; 9; 10; 12; 14; 15; 16; 18; 20; 21; 24; 28; 30; 35; 36; 40; 42; 45; 48; 56; 60; 63; 70; 72; 80; 84; 90; 105; 112; 120; 126; 140; 144; 168; 180; 210; 240; 252; 280; 315; 336; 360; 420; 504; 560; 630; 720; 840; 1008; 1260; 1680; 2520; 5040}</v>
+      </c>
+    </row>
+    <row r="6" spans="2:65">
       <c r="B6" s="1" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C8)</f>
         <v>=SUM_N_TERMS(4,10,1,1)</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:65">
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
@@ -1170,20 +1359,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:65">
       <c r="B8" s="3"/>
       <c r="C8" s="2" cm="1">
         <f t="array" ref="C8">SUM_N_TERMS(4,10,1,1)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="9" spans="2:65">
+      <c r="F9" s="2">
+        <f>5040/5280</f>
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="G9" s="2" cm="1">
+        <f t="array" ref="G9">RECIP(F9)</f>
+        <v>1.0476190476190477</v>
+      </c>
+    </row>
+    <row r="11" spans="2:65">
       <c r="B11" s="1" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C13)</f>
         <v>=SUM_INTEGERS(10)</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:65">
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
@@ -1191,14 +1390,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:65">
       <c r="B13" s="3"/>
       <c r="C13" s="2" cm="1">
         <f t="array" ref="C13">SUM_INTEGERS(10)</f>
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="2:65">
       <c r="B16" s="1" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C18)</f>
         <v>=SUM_INTEGERS(10,1)</v>
